--- a/data/测试用例完整版.xlsx
+++ b/data/测试用例完整版.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="82">
   <si>
     <t>编号</t>
   </si>
@@ -1263,10 +1263,10 @@
   <sheetPr/>
   <dimension ref="A1:S49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="N1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
+      <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25"/>
@@ -1822,10 +1822,50 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="6:12">
-      <c r="F13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="L13" s="4"/>
+    <row r="13" ht="56.25" spans="1:19">
+      <c r="A13" s="2">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="K13" s="6"/>
+      <c r="L13" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="M13" s="7">
+        <v>200</v>
+      </c>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="9:12">
       <c r="I14" s="4"/>

--- a/data/测试用例完整版.xlsx
+++ b/data/测试用例完整版.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="82">
   <si>
     <t>编号</t>
   </si>
@@ -1266,7 +1266,7 @@
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
+      <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25"/>
@@ -1867,9 +1867,46 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="9:12">
-      <c r="I14" s="4"/>
-      <c r="L14" s="4"/>
+    <row r="14" ht="22.5" spans="1:19">
+      <c r="A14" s="2">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="M14" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="6" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="12:12">
       <c r="L15" s="4"/>

--- a/data/测试用例完整版.xlsx
+++ b/data/测试用例完整版.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="82">
   <si>
     <t>编号</t>
   </si>
@@ -1263,10 +1263,10 @@
   <sheetPr/>
   <dimension ref="A1:S49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="D1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
+      <selection pane="bottomLeft" activeCell="A14" sqref="A14:S14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25"/>
@@ -1867,46 +1867,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" ht="22.5" spans="1:19">
-      <c r="A14" s="2">
-        <v>12</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>74</v>
-      </c>
+    <row r="14" spans="3:19">
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="7"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
       <c r="K14" s="6"/>
-      <c r="L14" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="M14" s="7" t="s">
-        <v>75</v>
-      </c>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
       <c r="N14" s="6"/>
       <c r="O14" s="6"/>
       <c r="P14" s="6"/>
       <c r="Q14" s="6"/>
       <c r="R14" s="6"/>
-      <c r="S14" s="6" t="b">
-        <v>1</v>
-      </c>
+      <c r="S14" s="6"/>
     </row>
     <row r="15" spans="12:12">
       <c r="L15" s="4"/>

--- a/data/测试用例完整版.xlsx
+++ b/data/测试用例完整版.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="82">
   <si>
     <t>编号</t>
   </si>
@@ -1263,10 +1263,10 @@
   <sheetPr/>
   <dimension ref="A1:S49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="L1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A14" sqref="A14:S14"/>
+      <selection pane="bottomLeft" activeCell="D13" sqref="D13:S13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25"/>
@@ -1822,7 +1822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" ht="56.25" spans="1:19">
+    <row r="13" ht="22.5" spans="1:19">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -1832,40 +1832,22 @@
       <c r="C13" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="D13" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>54</v>
-      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="7"/>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
-      <c r="J13" s="6" t="s">
-        <v>67</v>
-      </c>
+      <c r="J13" s="6"/>
       <c r="K13" s="6"/>
-      <c r="L13" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="M13" s="7">
-        <v>200</v>
-      </c>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
       <c r="N13" s="6"/>
       <c r="O13" s="6"/>
-      <c r="P13" s="6" t="s">
-        <v>77</v>
-      </c>
+      <c r="P13" s="6"/>
       <c r="Q13" s="6"/>
       <c r="R13" s="6"/>
-      <c r="S13" s="6" t="b">
-        <v>1</v>
-      </c>
+      <c r="S13" s="6"/>
     </row>
     <row r="14" spans="3:19">
       <c r="C14" s="6"/>
